--- a/PytestCourse/PytestCourse.xlsx
+++ b/PytestCourse/PytestCourse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3. Михайлов\Develop\PythonTraining\PythonTraining\PytestCourse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3366C0C5-3F8A-46CA-8C81-CC73F3C869F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0624B911-FC9B-49B6-9415-B76AA6AEF301}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="15990" windowHeight="24720" xr2:uid="{322C65E7-B1BD-4309-A376-1D5B7C88940C}"/>
   </bookViews>
@@ -545,7 +545,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,7 +632,7 @@
       </c>
       <c r="M2" s="2">
         <f>MEDIAN(I2:I18)</f>
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -657,25 +657,25 @@
         <v>44</v>
       </c>
       <c r="H3" s="1">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="I3" s="1">
         <f>H3-G3</f>
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K3" s="2">
         <f>I3/J3</f>
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="L3" t="s">
         <v>23</v>
       </c>
       <c r="M3" s="3">
         <f>MEDIAN(J2:J18)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -703,7 +703,7 @@
       </c>
       <c r="M4" s="2">
         <f>MEDIAN(K2:K18)</f>
-        <v>5.375</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -752,7 +752,7 @@
       </c>
       <c r="M6">
         <f>SUM(J2:J18)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -906,7 +906,7 @@
       </c>
       <c r="M13" s="2">
         <f>(B15-H2)/M2</f>
-        <v>10.3125</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">

--- a/PytestCourse/PytestCourse.xlsx
+++ b/PytestCourse/PytestCourse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3. Михайлов\Develop\PythonTraining\PythonTraining\PytestCourse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0624B911-FC9B-49B6-9415-B76AA6AEF301}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499A1968-C0A0-4BEC-A075-A7BD87D72D4F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="15990" windowHeight="24720" xr2:uid="{322C65E7-B1BD-4309-A376-1D5B7C88940C}"/>
   </bookViews>
@@ -545,7 +545,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,7 +632,7 @@
       </c>
       <c r="M2" s="2">
         <f>MEDIAN(I2:I18)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -693,17 +693,32 @@
         <v>2</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="K4" s="2"/>
+      <c r="F4" s="1">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1">
+        <v>68</v>
+      </c>
+      <c r="H4" s="1">
+        <v>119</v>
+      </c>
+      <c r="I4" s="1">
+        <f>H4-G4</f>
+        <v>51</v>
+      </c>
+      <c r="J4">
+        <v>6</v>
+      </c>
+      <c r="K4" s="2">
+        <f>I4/J4</f>
+        <v>8.5</v>
+      </c>
       <c r="L4" t="s">
         <v>20</v>
       </c>
       <c r="M4" s="2">
         <f>MEDIAN(K2:K18)</f>
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -721,7 +736,9 @@
         <v>2</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1">
+        <v>4</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -742,7 +759,9 @@
         <v>3</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1">
+        <v>5</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -752,7 +771,7 @@
       </c>
       <c r="M6">
         <f>SUM(J2:J18)</f>
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -770,7 +789,9 @@
         <v>3</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1">
+        <v>6</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -791,7 +812,9 @@
         <v>4</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1">
+        <v>7</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -812,7 +835,9 @@
         <v>4</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1">
+        <v>8</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -833,7 +858,9 @@
         <v>5</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1">
+        <v>9</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -854,7 +881,9 @@
         <v>5</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1">
+        <v>10</v>
+      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -875,7 +904,9 @@
         <v>6</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1">
+        <v>11</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -896,7 +927,9 @@
         <v>6</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1">
+        <v>12</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -905,8 +938,8 @@
         <v>18</v>
       </c>
       <c r="M13" s="2">
-        <f>(B15-H2)/M2</f>
-        <v>7.5</v>
+        <f>(B15-MAX(H2:H18))/M2</f>
+        <v>3.8695652173913042</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -924,7 +957,9 @@
         <v>7</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1">
+        <v>13</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -945,7 +980,9 @@
         <v>7</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1">
+        <v>14</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -965,7 +1002,9 @@
         <v>8</v>
       </c>
       <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="F16" s="1">
+        <v>15</v>
+      </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -985,7 +1024,9 @@
         <v>8</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="F17" s="1">
+        <v>16</v>
+      </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>

--- a/PytestCourse/PytestCourse.xlsx
+++ b/PytestCourse/PytestCourse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3. Михайлов\Develop\PythonTraining\PythonTraining\PytestCourse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499A1968-C0A0-4BEC-A075-A7BD87D72D4F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6866266-F32F-45EF-BB9A-34FC0B379B04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="15990" windowHeight="24720" xr2:uid="{322C65E7-B1BD-4309-A376-1D5B7C88940C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Chapter 1</t>
   </si>
@@ -112,6 +112,15 @@
   </si>
   <si>
     <t>Chapter 16</t>
+  </si>
+  <si>
+    <t>Среднее кол-во стр в день</t>
+  </si>
+  <si>
+    <t>Среднее пом в день</t>
+  </si>
+  <si>
+    <t>Среднее стр/пом</t>
   </si>
 </sst>
 </file>
@@ -544,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{678F2483-BB39-4242-A6CA-6B386A6BC967}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,7 +569,8 @@
     <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.7109375" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -632,7 +642,7 @@
       </c>
       <c r="M2" s="2">
         <f>MEDIAN(I2:I18)</f>
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -675,7 +685,7 @@
       </c>
       <c r="M3" s="3">
         <f>MEDIAN(J2:J18)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -718,7 +728,7 @@
       </c>
       <c r="M4" s="2">
         <f>MEDIAN(K2:K18)</f>
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -739,10 +749,23 @@
       <c r="F5" s="1">
         <v>4</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="K5" s="2"/>
+      <c r="G5" s="1">
+        <v>120</v>
+      </c>
+      <c r="H5" s="1">
+        <v>151</v>
+      </c>
+      <c r="I5" s="1">
+        <f>H5-G5</f>
+        <v>31</v>
+      </c>
+      <c r="J5">
+        <v>6</v>
+      </c>
+      <c r="K5" s="2">
+        <f>I5/J5</f>
+        <v>5.166666666666667</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -767,11 +790,11 @@
       <c r="I6" s="1"/>
       <c r="K6" s="2"/>
       <c r="L6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6">
-        <f>SUM(J2:J18)</f>
-        <v>14</v>
+        <v>29</v>
+      </c>
+      <c r="M6" s="2">
+        <f>AVERAGE(I2:I18)</f>
+        <v>31.5</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -796,6 +819,13 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="K7" s="2"/>
+      <c r="L7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="3">
+        <f>AVERAGE(J2:J18)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -819,6 +849,13 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="K8" s="2"/>
+      <c r="L8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="2">
+        <f>AVERAGE(K2:K18)</f>
+        <v>6.166666666666667</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -911,6 +948,13 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="K12" s="2"/>
+      <c r="L12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12">
+        <f>SUM(J2:J18)</f>
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -938,8 +982,8 @@
         <v>18</v>
       </c>
       <c r="M13" s="2">
-        <f>(B15-MAX(H2:H18))/M2</f>
-        <v>3.8695652173913042</v>
+        <f>(MAX(B2:B18)-MAX(H2:H18))/M2</f>
+        <v>3.4814814814814814</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">

--- a/PytestCourse/PytestCourse.xlsx
+++ b/PytestCourse/PytestCourse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3. Михайлов\Develop\PythonTraining\PythonTraining\PytestCourse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6866266-F32F-45EF-BB9A-34FC0B379B04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832B06E2-2046-4F66-B257-62BBDF516762}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="15990" windowHeight="24720" xr2:uid="{322C65E7-B1BD-4309-A376-1D5B7C88940C}"/>
   </bookViews>
@@ -554,7 +554,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,7 +569,7 @@
     <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.7109375" customWidth="1"/>
+    <col min="12" max="12" width="29.28515625" customWidth="1"/>
     <col min="13" max="13" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -642,7 +642,7 @@
       </c>
       <c r="M2" s="2">
         <f>MEDIAN(I2:I18)</f>
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -685,7 +685,7 @@
       </c>
       <c r="M3" s="3">
         <f>MEDIAN(J2:J18)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -728,7 +728,7 @@
       </c>
       <c r="M4" s="2">
         <f>MEDIAN(K2:K18)</f>
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -785,16 +785,29 @@
       <c r="F6" s="1">
         <v>5</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="K6" s="2"/>
+      <c r="G6" s="1">
+        <v>152</v>
+      </c>
+      <c r="H6" s="1">
+        <v>245</v>
+      </c>
+      <c r="I6" s="1">
+        <f>H6-G6</f>
+        <v>93</v>
+      </c>
+      <c r="J6">
+        <v>7</v>
+      </c>
+      <c r="K6" s="2">
+        <f>I6/J6</f>
+        <v>13.285714285714286</v>
+      </c>
       <c r="L6" t="s">
         <v>29</v>
       </c>
       <c r="M6" s="2">
         <f>AVERAGE(I2:I18)</f>
-        <v>31.5</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -822,9 +835,9 @@
       <c r="L7" t="s">
         <v>30</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="2">
         <f>AVERAGE(J2:J18)</f>
-        <v>5</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -854,7 +867,7 @@
       </c>
       <c r="M8" s="2">
         <f>AVERAGE(K2:K18)</f>
-        <v>6.166666666666667</v>
+        <v>7.590476190476191</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -953,7 +966,7 @@
       </c>
       <c r="M12">
         <f>SUM(J2:J18)</f>
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -982,8 +995,8 @@
         <v>18</v>
       </c>
       <c r="M13" s="2">
-        <f>(MAX(B2:B18)-MAX(H2:H18))/M2</f>
-        <v>3.4814814814814814</v>
+        <f>(MAX(B2:B18)-MAX(H2:H18))/M6</f>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
